--- a/data/bimetallic_results/icosahedron/icosahedron_CuAu_data_sub5.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_CuAu_data_sub5.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,13 +434,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D3">
         <v>-2.600113408329385</v>
       </c>
       <c r="E3">
-        <v>-0.0303317929395206</v>
+        <v>-0.03571988176748997</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,13 +451,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D4">
         <v>-2.653793586190108</v>
       </c>
       <c r="E4">
-        <v>-0.06066358587903986</v>
+        <v>-0.07143976353497994</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,13 +468,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D5">
         <v>-2.70747376405083</v>
       </c>
       <c r="E5">
-        <v>-0.09099537881855935</v>
+        <v>-0.1071596453024692</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -485,13 +485,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D6">
-        <v>-2.791162360451322</v>
+        <v>-2.753263355471234</v>
       </c>
       <c r="E6">
-        <v>-0.1513355902978486</v>
+        <v>-0.1349889406296405</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -502,13 +502,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D7">
-        <v>-2.829061365431408</v>
+        <v>-2.791162360451322</v>
       </c>
       <c r="E7">
-        <v>-0.1658862103567322</v>
+        <v>-0.1549276495164948</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -519,13 +519,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C8">
-        <v>0.6000000000000001</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>-2.859069783971177</v>
+        <v>-2.829061365431408</v>
       </c>
       <c r="E8">
-        <v>-0.1725462439752987</v>
+        <v>-0.1748663584033485</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,13 +536,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C9">
-        <v>0.7000000000000001</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
-        <v>-2.911196034610398</v>
+        <v>-2.859069783971177</v>
       </c>
       <c r="E9">
-        <v>-0.2013241096933163</v>
+        <v>-0.186914480849885</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,13 +553,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D10">
-        <v>-2.925423280269532</v>
+        <v>-2.889078202510945</v>
       </c>
       <c r="E10">
-        <v>-0.1922029704312481</v>
+        <v>-0.1989626032964201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -570,13 +570,13 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D11">
-        <v>-2.939650525928666</v>
+        <v>-2.911196034610398</v>
       </c>
       <c r="E11">
-        <v>-0.183081831169179</v>
+        <v>-0.2031201393026396</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -587,64 +587,64 @@
         <v>0.4342836895154479</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D12">
-        <v>-2.779917079680689</v>
+        <v>-2.925423280269532</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-0.1993870888685412</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.8685673790308959</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D13">
-        <v>-2.917651345804103</v>
+        <v>-2.939650525928666</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-0.195654038434442</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.8685673790308959</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D14">
-        <v>-3.015155730051418</v>
+        <v>-2.953877771587799</v>
       </c>
       <c r="E14">
-        <v>-0.0707522802170204</v>
+        <v>-0.1919209880003426</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8685673790308959</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>-3.098174485445464</v>
+        <v>-2.779917079680689</v>
       </c>
       <c r="E15">
-        <v>-0.1270189315807704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -655,13 +655,13 @@
         <v>0.8685673790308959</v>
       </c>
       <c r="C16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-3.150730605111884</v>
+        <v>-2.917651345804103</v>
       </c>
       <c r="E16">
-        <v>-0.1528229472168956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -672,13 +672,13 @@
         <v>0.8685673790308959</v>
       </c>
       <c r="C17">
-        <v>0.4</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="D17">
-        <v>-3.201329972052065</v>
+        <v>-2.937152222653566</v>
       </c>
       <c r="E17">
-        <v>-0.1766702101267821</v>
+        <v>-0.01463685793486391</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -689,13 +689,13 @@
         <v>0.8685673790308959</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="D18">
-        <v>-3.24667852542437</v>
+        <v>-2.95665309950303</v>
       </c>
       <c r="E18">
-        <v>-0.195266659468792</v>
+        <v>-0.02927371586972871</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -706,13 +706,13 @@
         <v>0.8685673790308959</v>
       </c>
       <c r="C19">
-        <v>0.6000000000000001</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="D19">
-        <v>-3.270673767805278</v>
+        <v>-2.976153976352493</v>
       </c>
       <c r="E19">
-        <v>-0.1925097978194046</v>
+        <v>-0.04391057380459262</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -723,13 +723,13 @@
         <v>0.8685673790308959</v>
       </c>
       <c r="C20">
-        <v>0.7000000000000001</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="D20">
-        <v>-3.284407691570779</v>
+        <v>-2.995654853201955</v>
       </c>
       <c r="E20">
-        <v>-0.1794916175546101</v>
+        <v>-0.05854743173945609</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -740,13 +740,13 @@
         <v>0.8685673790308959</v>
       </c>
       <c r="C21">
-        <v>0.8</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D21">
-        <v>-3.300173496744442</v>
+        <v>-3.015155730051418</v>
       </c>
       <c r="E21">
-        <v>-0.1685053186979784</v>
+        <v>-0.07318428967431956</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -757,13 +757,13 @@
         <v>0.8685673790308959</v>
       </c>
       <c r="C22">
-        <v>0.9</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="D22">
-        <v>-3.253216092735354</v>
+        <v>-3.034656606900881</v>
       </c>
       <c r="E22">
-        <v>-0.09479581065859488</v>
+        <v>-0.08782114760918303</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -774,1882 +774,5027 @@
         <v>0.8685673790308959</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="D23">
-        <v>-3.185172386107054</v>
+        <v>-3.04637522559845</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.09467574739215268</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B24">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="D24">
-        <v>-3.081541423309606</v>
+        <v>-3.064135989250376</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-0.1075724921294805</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="D25">
-        <v>-3.15930814035885</v>
+        <v>-3.071824753386929</v>
       </c>
       <c r="E25">
-        <v>-0.04951189597591599</v>
+        <v>-0.1103972373514335</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B26">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D26">
-        <v>-3.233496777708323</v>
+        <v>-3.093615371599872</v>
       </c>
       <c r="E26">
-        <v>-0.09544571225206244</v>
+        <v>-0.1273238366497784</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B27">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C27">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>-3.299699780846118</v>
+        <v>-3.113241182955872</v>
       </c>
       <c r="E27">
-        <v>-0.1333938943165314</v>
+        <v>-0.1420856290911789</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C28">
-        <v>0.4</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="D28">
-        <v>-3.34167337884292</v>
+        <v>-3.099175926704513</v>
       </c>
       <c r="E28">
-        <v>-0.1471126712400053</v>
+        <v>-0.123156353925221</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C29">
-        <v>0.5</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D29">
-        <v>-3.370245337033721</v>
+        <v>-3.110349238293638</v>
       </c>
       <c r="E29">
-        <v>-0.1474298083574797</v>
+        <v>-0.1294656465997464</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C30">
-        <v>0.6000000000000001</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="D30">
-        <v>-3.405565241513357</v>
+        <v>-3.162368684844097</v>
       </c>
       <c r="E30">
-        <v>-0.1544948917637889</v>
+        <v>-0.1766210742356065</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B31">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C31">
-        <v>0.7000000000000001</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D31">
-        <v>-3.411135342023864</v>
+        <v>-3.133615855659441</v>
       </c>
       <c r="E31">
-        <v>-0.1318101712009683</v>
+        <v>-0.1430042261363518</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B32">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="D32">
-        <v>-3.412811812315458</v>
+        <v>-3.151797944630117</v>
       </c>
       <c r="E32">
-        <v>-0.1052318204192352</v>
+        <v>-0.1563222961924282</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C33">
-        <v>0.9</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="D33">
-        <v>-3.405214668525686</v>
+        <v>-3.149346871690755</v>
       </c>
       <c r="E33">
-        <v>-0.06937985555613652</v>
+        <v>-0.1490072043384667</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>1.302851068546344</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="D34">
-        <v>-3.364089634042877</v>
+        <v>-3.158729096986112</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>-0.1535254107192252</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="D35">
-        <v>-3.172980348278157</v>
+        <v>-3.186035492887036</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>-0.1759677877055501</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C36">
-        <v>0.1</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D36">
-        <v>-3.248112985216476</v>
+        <v>-3.195388713022832</v>
       </c>
       <c r="E36">
-        <v>-0.04603940738390477</v>
+        <v>-0.1804569889267471</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="D37">
-        <v>-3.3176773374684</v>
+        <v>-3.184143063981582</v>
       </c>
       <c r="E37">
-        <v>-0.08651053008141441</v>
+        <v>-0.1643473209708977</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D38">
-        <v>-3.371903328345554</v>
+        <v>-3.201375881019654</v>
       </c>
       <c r="E38">
-        <v>-0.111643291404155</v>
+        <v>-0.1767161190943705</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C39">
-        <v>0.4</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="D39">
-        <v>-3.414331503486515</v>
+        <v>-3.237683228691768</v>
       </c>
       <c r="E39">
-        <v>-0.124978236990702</v>
+        <v>-0.2081594478518856</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B40">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="D40">
-        <v>-3.461473983324633</v>
+        <v>-3.222948906987054</v>
       </c>
       <c r="E40">
-        <v>-0.1430274872744055</v>
+        <v>-0.1885611072325719</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B41">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C41">
-        <v>0.6000000000000001</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D41">
-        <v>-3.482388217892997</v>
+        <v>-3.232657781154698</v>
       </c>
       <c r="E41">
-        <v>-0.1348484922883559</v>
+        <v>-0.1934059624856179</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B42">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C42">
-        <v>0.7000000000000001</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="D42">
-        <v>-3.497861439735676</v>
+        <v>-3.227452697720325</v>
       </c>
       <c r="E42">
-        <v>-0.1212284845766209</v>
+        <v>-0.183336860136645</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C43">
-        <v>0.8</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="D43">
-        <v>-3.504495732903039</v>
+        <v>-3.243616256007388</v>
       </c>
       <c r="E43">
-        <v>-0.09876954818956951</v>
+        <v>-0.1946363995091096</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C44">
-        <v>0.9</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="D44">
-        <v>-3.493982018271406</v>
+        <v>-3.272816874716025</v>
       </c>
       <c r="E44">
-        <v>-0.05916260400352308</v>
+        <v>-0.2189729993031468</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="B45">
-        <v>1.737134758061792</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="D45">
-        <v>-3.463912643822297</v>
+        <v>-3.244006701544506</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-0.1852988072170285</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D46">
-        <v>-3.231129838134682</v>
+        <v>-3.266469140719914</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>-0.2028972274778376</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C47">
-        <v>0.1</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="D47">
-        <v>-3.308286560691057</v>
+        <v>-3.26476225700675</v>
       </c>
       <c r="E47">
-        <v>-0.04753031716374334</v>
+        <v>-0.1963263248500746</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C48">
-        <v>0.2</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="D48">
-        <v>-3.371883819478623</v>
+        <v>-3.253887912904862</v>
       </c>
       <c r="E48">
-        <v>-0.08150117055867723</v>
+        <v>-0.1805879618335871</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C49">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D49">
-        <v>-3.425226100374137</v>
+        <v>-3.265976427138388</v>
       </c>
       <c r="E49">
-        <v>-0.10521704606156</v>
+        <v>-0.1878124571525139</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C50">
-        <v>0.4</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D50">
-        <v>-3.467453420641627</v>
+        <v>-3.264770860798857</v>
       </c>
       <c r="E50">
-        <v>-0.1178179609364181</v>
+        <v>-0.181742871898384</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C51">
-        <v>0.5</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D51">
-        <v>-3.503889165061929</v>
+        <v>-3.261942661921256</v>
       </c>
       <c r="E51">
-        <v>-0.1246272999640892</v>
+        <v>-0.1740506541061841</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C52">
-        <v>0.6000000000000001</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="D52">
-        <v>-3.528401460642902</v>
+        <v>-3.278066565330096</v>
       </c>
       <c r="E52">
-        <v>-0.1195131901524298</v>
+        <v>-0.1853105386004255</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C53">
-        <v>0.7000000000000001</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D53">
-        <v>-3.545164885002215</v>
+        <v>-3.290663720544728</v>
       </c>
       <c r="E53">
-        <v>-0.1066502091191111</v>
+        <v>-0.1930436749004578</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C54">
-        <v>0.8</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D54">
-        <v>-3.552421386034015</v>
+        <v>-3.287489853546673</v>
       </c>
       <c r="E54">
-        <v>-0.08428030475827963</v>
+        <v>-0.1850057889878037</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C55">
-        <v>0.9</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D55">
-        <v>-3.550367363765393</v>
+        <v>-3.28138201997883</v>
       </c>
       <c r="E55">
-        <v>-0.05259987709702552</v>
+        <v>-0.1740339365053619</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>561</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>2.17141844757724</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D56">
-        <v>-3.527393892060999</v>
+        <v>-3.272784806059516</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>-0.1605727036714486</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D57">
-        <v>-3.271316710675324</v>
+        <v>-3.280832816013361</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>-0.163756694710694</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B58">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C58">
-        <v>0.1</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="D58">
-        <v>-3.345914458767481</v>
+        <v>-3.274873177851624</v>
       </c>
       <c r="E58">
-        <v>-0.04460286707737415</v>
+        <v>-0.1529330376343579</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B59">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C59">
-        <v>0.2</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="D59">
-        <v>-3.406921972902543</v>
+        <v>-3.272694491753759</v>
       </c>
       <c r="E59">
-        <v>-0.0756155001976544</v>
+        <v>-0.1458903326218948</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C60">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D60">
-        <v>-3.462607090293663</v>
+        <v>-3.290969197759313</v>
       </c>
       <c r="E60">
-        <v>-0.1013057365739929</v>
+        <v>-0.1593010197128488</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C61">
-        <v>0.4</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D61">
-        <v>-3.506233007080924</v>
+        <v>-3.283542576312682</v>
       </c>
       <c r="E61">
-        <v>-0.1149367723464716</v>
+        <v>-0.147010379351619</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B62">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="D62">
-        <v>-3.539945783108426</v>
+        <v>-3.264422275529449</v>
       </c>
       <c r="E62">
-        <v>-0.1186546673591917</v>
+        <v>-0.123026059653787</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B63">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C63">
-        <v>0.6000000000000001</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="D63">
-        <v>-3.566849444487509</v>
+        <v>-3.282696981535003</v>
       </c>
       <c r="E63">
-        <v>-0.1155634477234926</v>
+        <v>-0.1364367467447415</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B64">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C64">
-        <v>0.7000000000000001</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="D64">
-        <v>-3.582145848807067</v>
+        <v>-3.253053593887852</v>
       </c>
       <c r="E64">
-        <v>-0.1008649710282674</v>
+        <v>-0.1019293401829915</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B65">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C65">
-        <v>0.8</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="D65">
-        <v>-3.591392213002441</v>
+        <v>-3.263590984193168</v>
       </c>
       <c r="E65">
-        <v>-0.0801164542088596</v>
+        <v>-0.1076027115737083</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B66">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C66">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D66">
-        <v>-3.587792383900691</v>
+        <v>-3.25074101582528</v>
       </c>
       <c r="E66">
-        <v>-0.04652174409232795</v>
+        <v>-0.08988872429122152</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>923</v>
+        <v>55</v>
       </c>
       <c r="B67">
-        <v>2.605702137092688</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="D67">
-        <v>-3.571265520823145</v>
+        <v>-3.240528623214968</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>-0.07481231276631101</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>1415</v>
+        <v>55</v>
       </c>
       <c r="B68">
-        <v>3.039985826608136</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="D68">
-        <v>-3.300731718655187</v>
+        <v>-3.227678654847081</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>-0.05709832548382374</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>1415</v>
+        <v>55</v>
       </c>
       <c r="B69">
-        <v>3.039985826608136</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C69">
-        <v>0.1</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="D69">
-        <v>-3.373558820411009</v>
+        <v>-3.213509898600405</v>
       </c>
       <c r="E69">
-        <v>-0.04256251293146684</v>
+        <v>-0.03806555032254946</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>1415</v>
+        <v>55</v>
       </c>
       <c r="B70">
-        <v>3.039985826608136</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C70">
-        <v>0.2</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="D70">
-        <v>-3.435508618479929</v>
+        <v>-3.19934114235373</v>
       </c>
       <c r="E70">
-        <v>-0.07424772217603115</v>
+        <v>-0.01903277516127473</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>1415</v>
+        <v>55</v>
       </c>
       <c r="B71">
-        <v>3.039985826608136</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C71">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>-3.487803152687267</v>
+        <v>-3.185172386107054</v>
       </c>
       <c r="E71">
-        <v>-0.09627766755901535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1415</v>
+        <v>147</v>
       </c>
       <c r="B72">
-        <v>3.039985826608136</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C72">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-3.531321405511033</v>
+        <v>-3.081541423309606</v>
       </c>
       <c r="E72">
-        <v>-0.1095313315584261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1415</v>
+        <v>147</v>
       </c>
       <c r="B73">
-        <v>3.039985826608136</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C73">
-        <v>0.5</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="D73">
-        <v>-3.566529769571298</v>
+        <v>-3.088837669749883</v>
       </c>
       <c r="E73">
-        <v>-0.1144751067943361</v>
+        <v>-0.005374149768622161</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>1415</v>
+        <v>147</v>
       </c>
       <c r="B74">
-        <v>3.039985826608136</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C74">
-        <v>0.6000000000000001</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="D74">
-        <v>-3.592644888482288</v>
+        <v>-3.096133916190159</v>
       </c>
       <c r="E74">
-        <v>-0.1103256368809706</v>
+        <v>-0.01074829953724343</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>1415</v>
+        <v>147</v>
       </c>
       <c r="B75">
-        <v>3.039985826608136</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C75">
-        <v>0.7000000000000001</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D75">
-        <v>-3.61015343289497</v>
+        <v>-3.103430162630436</v>
       </c>
       <c r="E75">
-        <v>-0.09756959246929753</v>
+        <v>-0.01612244930586471</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1415</v>
+        <v>147</v>
       </c>
       <c r="B76">
-        <v>3.039985826608136</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C76">
-        <v>0.8</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="D76">
-        <v>-3.619445150208371</v>
+        <v>-3.108701420782188</v>
       </c>
       <c r="E76">
-        <v>-0.0765967209583438</v>
+        <v>-0.01947161078596249</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1415</v>
+        <v>147</v>
       </c>
       <c r="B77">
-        <v>3.039985826608136</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C77">
-        <v>0.9</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="D77">
-        <v>-3.617529231643498</v>
+        <v>-3.115997667222465</v>
       </c>
       <c r="E77">
-        <v>-0.04441621356911629</v>
+        <v>-0.02484576055458465</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1415</v>
+        <v>147</v>
       </c>
       <c r="B78">
-        <v>3.039985826608136</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="D78">
-        <v>-3.603377606898737</v>
+        <v>-3.121268925374217</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>-0.02819492203468199</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B79">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D79">
-        <v>-3.32318619981767</v>
+        <v>-3.128565171814493</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-0.03356907180330326</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B80">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C80">
-        <v>0.1</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="D80">
-        <v>-3.394871969422232</v>
+        <v>-3.131660637015246</v>
       </c>
       <c r="E80">
-        <v>-0.04121529441996286</v>
+        <v>-0.03474244033240081</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B81">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C81">
-        <v>0.2</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="D81">
-        <v>-3.456599074629379</v>
+        <v>-3.136931895166998</v>
       </c>
       <c r="E81">
-        <v>-0.07247192444251072</v>
+        <v>-0.03809160181249771</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B82">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C82">
-        <v>0.3</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="D82">
-        <v>-3.50980751180992</v>
+        <v>-3.141552090557766</v>
       </c>
       <c r="E82">
-        <v>-0.09520988643845207</v>
+        <v>-0.04078970053161068</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B83">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C83">
-        <v>0.4</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="D83">
-        <v>-3.552945804077817</v>
+        <v>-3.146974153371993</v>
       </c>
       <c r="E83">
-        <v>-0.1078777035217506</v>
+        <v>-0.04428966667418344</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B84">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C84">
-        <v>0.5</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="D84">
-        <v>-3.587968786747502</v>
+        <v>-3.152745669622255</v>
       </c>
       <c r="E84">
-        <v>-0.1124302110068363</v>
+        <v>-0.04813908625278973</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B85">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C85">
-        <v>0.6000000000000001</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="D85">
-        <v>-3.61487519767399</v>
+        <v>-3.156644664746109</v>
       </c>
       <c r="E85">
-        <v>-0.1088661467487244</v>
+        <v>-0.05011598470498946</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B86">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C86">
-        <v>0.7000000000000001</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="D86">
-        <v>-3.631887535094687</v>
+        <v>-3.162386398269953</v>
       </c>
       <c r="E86">
-        <v>-0.09540800898482205</v>
+        <v>-0.05393562155717824</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B87">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C87">
-        <v>0.8</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="D87">
-        <v>-3.642296348418631</v>
+        <v>-3.165429879132619</v>
       </c>
       <c r="E87">
-        <v>-0.07534634712416743</v>
+        <v>-0.05505700574818961</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B88">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C88">
-        <v>0.9</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="D88">
-        <v>-3.641334626856428</v>
+        <v>-3.177835597102828</v>
       </c>
       <c r="E88">
-        <v>-0.04391415037736462</v>
+        <v>-0.06554062704674335</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>2057</v>
+        <v>147</v>
       </c>
       <c r="B89">
-        <v>3.474269516123583</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="D89">
-        <v>-3.627890951663662</v>
+        <v>-3.179190721863296</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>-0.0649736551355562</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B90">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="D90">
-        <v>-3.34088575020462</v>
+        <v>-3.182659436039017</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>-0.06652027263962301</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B91">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C91">
-        <v>0.1</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="D91">
-        <v>-3.412741871366213</v>
+        <v>-3.191705111558936</v>
       </c>
       <c r="E91">
-        <v>-0.04122335783589692</v>
+        <v>-0.07364385148788655</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B92">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C92">
-        <v>0.2</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="D92">
-        <v>-3.473751751770304</v>
+        <v>-3.198986905896895</v>
       </c>
       <c r="E92">
-        <v>-0.07160047491429289</v>
+        <v>-0.07900354915419117</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B93">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C93">
-        <v>0.3</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D93">
-        <v>-3.525931734714286</v>
+        <v>-3.194065315566355</v>
       </c>
       <c r="E93">
-        <v>-0.0931476945325791</v>
+        <v>-0.07215986215199566</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B94">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C94">
-        <v>0.4</v>
+        <v>0.1496598639455782</v>
       </c>
       <c r="D94">
-        <v>-3.570498812379425</v>
+        <v>-3.204436183450094</v>
       </c>
       <c r="E94">
-        <v>-0.1070820088720228</v>
+        <v>-0.08060863336407964</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B95">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C95">
-        <v>0.5</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="D95">
-        <v>-3.605162025257566</v>
+        <v>-3.20112354270363</v>
       </c>
       <c r="E95">
-        <v>-0.111112458424468</v>
+        <v>-0.07537389594596178</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B96">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C96">
-        <v>0.6000000000000001</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="D96">
-        <v>-3.631557024073371</v>
+        <v>-3.210519055165361</v>
       </c>
       <c r="E96">
-        <v>-0.1068746939145775</v>
+        <v>-0.08284731173603666</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B97">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C97">
-        <v>0.7000000000000001</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="D97">
-        <v>-3.649286870888681</v>
+        <v>-3.21688537375321</v>
       </c>
       <c r="E97">
-        <v>-0.09397177740419216</v>
+        <v>-0.0872915336522313</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B98">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C98">
-        <v>0.8</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="D98">
-        <v>-3.658918772467566</v>
+        <v>-3.218817473082029</v>
       </c>
       <c r="E98">
-        <v>-0.07297091565738112</v>
+        <v>-0.08730153630939563</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B99">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C99">
-        <v>0.9</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="D99">
-        <v>-3.658374217432548</v>
+        <v>-3.228327362247066</v>
       </c>
       <c r="E99">
-        <v>-0.04179359729666782</v>
+        <v>-0.09488932880277723</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>2869</v>
+        <v>147</v>
       </c>
       <c r="B100">
-        <v>3.908553205639032</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D100">
-        <v>-3.647213383461576</v>
+        <v>-3.228406007055885</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.09304587693994204</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B101">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="D101">
-        <v>-3.355194263713085</v>
+        <v>-3.231919179312781</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-0.09463695252518312</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B102">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C102">
-        <v>0.1</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="D102">
-        <v>-3.426468167907581</v>
+        <v>-3.231132004327446</v>
       </c>
       <c r="E102">
-        <v>-0.04050994532948105</v>
+        <v>-0.09192768086819214</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B103">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C103">
-        <v>0.2</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="D103">
-        <v>-3.487505379326699</v>
+        <v>-3.239352048134815</v>
       </c>
       <c r="E103">
-        <v>-0.07078319788358334</v>
+        <v>-0.09822562800390644</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B104">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C104">
-        <v>0.3</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="D104">
-        <v>-3.539987181151727</v>
+        <v>-3.245743167426796</v>
       </c>
       <c r="E104">
-        <v>-0.09250104084359645</v>
+        <v>-0.1026946506242328</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B105">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C105">
-        <v>0.4</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="D105">
-        <v>-3.583838257969103</v>
+        <v>-3.25605465201803</v>
       </c>
       <c r="E105">
-        <v>-0.1055881587959568</v>
+        <v>-0.1110840385438125</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B106">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C106">
-        <v>0.5</v>
+        <v>0.2312925170068027</v>
       </c>
       <c r="D106">
-        <v>-3.618706288053716</v>
+        <v>-3.254780768413488</v>
       </c>
       <c r="E106">
-        <v>-0.1096922300155536</v>
+        <v>-0.1078880582676156</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B107">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C107">
-        <v>0.6000000000000001</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="D107">
-        <v>-3.645708473969764</v>
+        <v>-3.253826007158346</v>
       </c>
       <c r="E107">
-        <v>-0.1059304570665864</v>
+        <v>-0.1050112003408179</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B108">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C108">
-        <v>0.7000000000000001</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="D108">
-        <v>-3.664749044563406</v>
+        <v>-3.262627129364403</v>
       </c>
       <c r="E108">
-        <v>-0.09420706879521346</v>
+        <v>-0.1118902258752201</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B109">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C109">
-        <v>0.8</v>
+        <v>0.2517006802721088</v>
       </c>
       <c r="D109">
-        <v>-3.673290292899988</v>
+        <v>-3.264954883869297</v>
       </c>
       <c r="E109">
-        <v>-0.07198435826677974</v>
+        <v>-0.1122958837084593</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B110">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C110">
-        <v>0.9</v>
+        <v>0.2585034013605442</v>
       </c>
       <c r="D110">
-        <v>-3.673418742856503</v>
+        <v>-3.271635801727454</v>
       </c>
       <c r="E110">
-        <v>-0.04134884935828004</v>
+        <v>-0.1170547048949619</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>3871</v>
+        <v>147</v>
       </c>
       <c r="B111">
-        <v>4.34283689515448</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="D111">
-        <v>-3.662833852363239</v>
+        <v>-3.277772852172085</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>-0.1212696586679374</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B112">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="D112">
-        <v>-3.367000067974438</v>
+        <v>-3.267966927732479</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>-0.1095416375566769</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B113">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C113">
-        <v>0.1</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="D113">
-        <v>-3.437902566632649</v>
+        <v>-3.282556283952452</v>
       </c>
       <c r="E113">
-        <v>-0.04003029173124073</v>
+        <v>-0.1222088971049948</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B114">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C114">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D114">
-        <v>-3.499509431083135</v>
+        <v>-3.284436644582098</v>
       </c>
       <c r="E114">
-        <v>-0.07076494925475529</v>
+        <v>-0.1221671610629858</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B115">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C115">
-        <v>0.3</v>
+        <v>0.2925170068027211</v>
       </c>
       <c r="D115">
-        <v>-3.551963206596088</v>
+        <v>-3.292642131237595</v>
       </c>
       <c r="E115">
-        <v>-0.09234651784073744</v>
+        <v>-0.1284505510468281</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B116">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C116">
-        <v>0.4</v>
+        <v>0.2993197278911565</v>
       </c>
       <c r="D116">
-        <v>-3.596557886837342</v>
+        <v>-3.287280397155265</v>
       </c>
       <c r="E116">
-        <v>-0.1060689911550212</v>
+        <v>-0.1211667202928428</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B117">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C117">
-        <v>0.5</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="D117">
-        <v>-3.630942117173241</v>
+        <v>-3.291074709694632</v>
       </c>
       <c r="E117">
-        <v>-0.1095810145639491</v>
+        <v>-0.1230389361605551</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B118">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C118">
-        <v>0.6000000000000001</v>
+        <v>0.3129251700680272</v>
       </c>
       <c r="D118">
-        <v>-3.657648401787863</v>
+        <v>-3.29040188371009</v>
       </c>
       <c r="E118">
-        <v>-0.1054150922516013</v>
+        <v>-0.1204440135043585</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B119">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C119">
-        <v>0.7000000000000001</v>
+        <v>0.3197278911564626</v>
       </c>
       <c r="D119">
-        <v>-3.675803794384851</v>
+        <v>-3.297876794360255</v>
       </c>
       <c r="E119">
-        <v>-0.09269827792161878</v>
+        <v>-0.1259968274828691</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B120">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C120">
-        <v>0.8</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="D120">
-        <v>-3.685244313194775</v>
+        <v>-3.307372204434161</v>
       </c>
       <c r="E120">
-        <v>-0.07126658980457146</v>
+        <v>-0.1335701408851193</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B121">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C121">
-        <v>0.9</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D121">
-        <v>-3.685553751404867</v>
+        <v>-3.306628355277417</v>
       </c>
       <c r="E121">
-        <v>-0.04070382108769288</v>
+        <v>-0.1309041950567198</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>5083</v>
+        <v>147</v>
       </c>
       <c r="B122">
-        <v>4.777120584669929</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0.3401360544217687</v>
       </c>
       <c r="D122">
-        <v>-3.675722137244145</v>
+        <v>-3.312204166270521</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>-0.1345579093781697</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B123">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="D123">
-        <v>-3.376906401437568</v>
+        <v>-3.31012786022516</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>-0.1305595066611533</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B124">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C124">
-        <v>0.1</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="D124">
-        <v>-3.44780595275897</v>
+        <v>-3.324942590351625</v>
       </c>
       <c r="E124">
-        <v>-0.03993651268361464</v>
+        <v>-0.1434521401159645</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B125">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C125">
-        <v>0.2</v>
+        <v>0.3605442176870748</v>
       </c>
       <c r="D125">
-        <v>-3.508826699002179</v>
+        <v>-3.327497908157617</v>
       </c>
       <c r="E125">
-        <v>-0.06999422028903579</v>
+        <v>-0.1440853612503008</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B126">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C126">
-        <v>0.3</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="D126">
-        <v>-3.561638028329671</v>
+        <v>-3.328321383637832</v>
       </c>
       <c r="E126">
-        <v>-0.0918425109787413</v>
+        <v>-0.1429867400588611</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B127">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C127">
-        <v>0.4</v>
+        <v>0.3741496598639456</v>
       </c>
       <c r="D127">
-        <v>-3.605420250802407</v>
+        <v>-3.333549177624938</v>
       </c>
       <c r="E127">
-        <v>-0.1046616948136894</v>
+        <v>-0.146292437374312</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B128">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C128">
-        <v>0.5</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D128">
-        <v>-3.641053670153089</v>
+        <v>-3.321845035083137</v>
       </c>
       <c r="E128">
-        <v>-0.1093320755265843</v>
+        <v>-0.1326661981608563</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B129">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C129">
-        <v>0.6000000000000001</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="D129">
-        <v>-3.668147825887612</v>
+        <v>-3.340410576534798</v>
       </c>
       <c r="E129">
-        <v>-0.10546319262332</v>
+        <v>-0.1493096429408625</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B130">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C130">
-        <v>0.7000000000000001</v>
+        <v>0.3945578231292517</v>
       </c>
       <c r="D130">
-        <v>-3.685572044071711</v>
+        <v>-3.331183119973746</v>
       </c>
       <c r="E130">
-        <v>-0.09192437216963167</v>
+        <v>-0.1381600897081556</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B131">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C131">
-        <v>0.8</v>
+        <v>0.4013605442176871</v>
       </c>
       <c r="D131">
-        <v>-3.695276146847765</v>
+        <v>-3.3388927820413</v>
       </c>
       <c r="E131">
-        <v>-0.07066543630789901</v>
+        <v>-0.1439476551040544</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>6525</v>
+        <v>147</v>
       </c>
       <c r="B132">
-        <v>5.211404274185376</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C132">
-        <v>0.9</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="D132">
-        <v>-3.696432736556585</v>
+        <v>-3.347476167763393</v>
       </c>
       <c r="E132">
-        <v>-0.04085898737893129</v>
+        <v>-0.1506089441544929</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
+        <v>147</v>
+      </c>
+      <c r="B133">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C133">
+        <v>0.4149659863945578</v>
+      </c>
+      <c r="D133">
+        <v>-3.351647192729103</v>
+      </c>
+      <c r="E133">
+        <v>-0.1528578724485481</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>147</v>
+      </c>
+      <c r="B134">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C134">
+        <v>0.4217687074829932</v>
+      </c>
+      <c r="D134">
+        <v>-3.34773514372997</v>
+      </c>
+      <c r="E134">
+        <v>-0.1470237267777597</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>147</v>
+      </c>
+      <c r="B135">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C135">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D135">
+        <v>-3.353208093849818</v>
+      </c>
+      <c r="E135">
+        <v>-0.1505745802259533</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C136">
+        <v>0.4353741496598639</v>
+      </c>
+      <c r="D136">
+        <v>-3.347191962279756</v>
+      </c>
+      <c r="E136">
+        <v>-0.1426363519842366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C137">
+        <v>0.4421768707482993</v>
+      </c>
+      <c r="D137">
+        <v>-3.351447632653332</v>
+      </c>
+      <c r="E137">
+        <v>-0.1449699256861576</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>147</v>
+      </c>
+      <c r="B138">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C138">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="D138">
+        <v>-3.354432489204132</v>
+      </c>
+      <c r="E138">
+        <v>-0.1460326855653025</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>147</v>
+      </c>
+      <c r="B139">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C139">
+        <v>0.4557823129251701</v>
+      </c>
+      <c r="D139">
+        <v>-3.353458887954917</v>
+      </c>
+      <c r="E139">
+        <v>-0.1431369876444326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>147</v>
+      </c>
+      <c r="B140">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C140">
+        <v>0.4625850340136055</v>
+      </c>
+      <c r="D140">
+        <v>-3.358667203096671</v>
+      </c>
+      <c r="E140">
+        <v>-0.1464232061145316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C141">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="D141">
+        <v>-3.367591416247674</v>
+      </c>
+      <c r="E141">
+        <v>-0.15342532259388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C142">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="D142">
+        <v>-3.368115775112082</v>
+      </c>
+      <c r="E142">
+        <v>-0.1520275847866333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C143">
+        <v>0.4829931972789115</v>
+      </c>
+      <c r="D143">
+        <v>-3.375061365820473</v>
+      </c>
+      <c r="E143">
+        <v>-0.157051078823369</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C144">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="D144">
+        <v>-3.374222275742657</v>
+      </c>
+      <c r="E144">
+        <v>-0.1542898920738982</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C145">
+        <v>0.4965986394557823</v>
+      </c>
+      <c r="D145">
+        <v>-3.362391751669263</v>
+      </c>
+      <c r="E145">
+        <v>-0.1405372713288484</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C146">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="D146">
+        <v>-3.376547063038156</v>
+      </c>
+      <c r="E146">
+        <v>-0.1527704860260872</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C147">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="D147">
+        <v>-3.38394789978564</v>
+      </c>
+      <c r="E147">
+        <v>-0.1582492261019164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C148">
+        <v>0.5170068027210885</v>
+      </c>
+      <c r="D148">
+        <v>-3.382291677875211</v>
+      </c>
+      <c r="E148">
+        <v>-0.1546709075198318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C149">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D149">
+        <v>-3.380036060447136</v>
+      </c>
+      <c r="E149">
+        <v>-0.1504931934201026</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C150">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="D150">
+        <v>-3.376084971373415</v>
+      </c>
+      <c r="E150">
+        <v>-0.1446200076747262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C151">
+        <v>0.5374149659863946</v>
+      </c>
+      <c r="D151">
+        <v>-3.386754554013639</v>
+      </c>
+      <c r="E151">
+        <v>-0.1533674936432958</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>147</v>
+      </c>
+      <c r="B152">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C152">
+        <v>0.54421768707483</v>
+      </c>
+      <c r="D152">
+        <v>-3.389941285581475</v>
+      </c>
+      <c r="E152">
+        <v>-0.1546321285394765</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C153">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="D153">
+        <v>-3.387309068257828</v>
+      </c>
+      <c r="E153">
+        <v>-0.1500778145441752</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>147</v>
+      </c>
+      <c r="B154">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C154">
+        <v>0.5578231292517006</v>
+      </c>
+      <c r="D154">
+        <v>-3.390074559249598</v>
+      </c>
+      <c r="E154">
+        <v>-0.1509212088642904</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>147</v>
+      </c>
+      <c r="B155">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C155">
+        <v>0.564625850340136</v>
+      </c>
+      <c r="D155">
+        <v>-3.399749916807931</v>
+      </c>
+      <c r="E155">
+        <v>-0.1586744697509683</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>147</v>
+      </c>
+      <c r="B156">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C156">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D156">
+        <v>-3.390771694561948</v>
+      </c>
+      <c r="E156">
+        <v>-0.1477741508333306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>147</v>
+      </c>
+      <c r="B157">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C157">
+        <v>0.5782312925170068</v>
+      </c>
+      <c r="D157">
+        <v>-3.400920948713019</v>
+      </c>
+      <c r="E157">
+        <v>-0.1560013083127463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>147</v>
+      </c>
+      <c r="B158">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C158">
+        <v>0.5850340136054422</v>
+      </c>
+      <c r="D158">
+        <v>-3.390524415056202</v>
+      </c>
+      <c r="E158">
+        <v>-0.1436826779842746</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>147</v>
+      </c>
+      <c r="B159">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C159">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="D159">
+        <v>-3.402323455564062</v>
+      </c>
+      <c r="E159">
+        <v>-0.1535596218204791</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>147</v>
+      </c>
+      <c r="B160">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C160">
+        <v>0.5986394557823129</v>
+      </c>
+      <c r="D160">
+        <v>-3.40072494510237</v>
+      </c>
+      <c r="E160">
+        <v>-0.1500390146871324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>147</v>
+      </c>
+      <c r="B161">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C161">
+        <v>0.6054421768707483</v>
+      </c>
+      <c r="D161">
+        <v>-3.402520968712497</v>
+      </c>
+      <c r="E161">
+        <v>-0.1499129416256042</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>147</v>
+      </c>
+      <c r="B162">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C162">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="D162">
+        <v>-3.394372567331687</v>
+      </c>
+      <c r="E162">
+        <v>-0.1398424435731398</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>147</v>
+      </c>
+      <c r="B163">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C163">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="D163">
+        <v>-3.407877114787369</v>
+      </c>
+      <c r="E163">
+        <v>-0.1514248943571668</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>147</v>
+      </c>
+      <c r="B164">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C164">
+        <v>0.6258503401360545</v>
+      </c>
+      <c r="D164">
+        <v>-3.407449296707935</v>
+      </c>
+      <c r="E164">
+        <v>-0.149074979606078</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>147</v>
+      </c>
+      <c r="B165">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C165">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="D165">
+        <v>-3.411954551578481</v>
+      </c>
+      <c r="E165">
+        <v>-0.1516581378049688</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>147</v>
+      </c>
+      <c r="B166">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C166">
+        <v>0.6394557823129252</v>
+      </c>
+      <c r="D166">
+        <v>-3.416688668848245</v>
+      </c>
+      <c r="E166">
+        <v>-0.1544701584030785</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>147</v>
+      </c>
+      <c r="B167">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C167">
+        <v>0.6462585034013606</v>
+      </c>
+      <c r="D167">
+        <v>-3.409387261861077</v>
+      </c>
+      <c r="E167">
+        <v>-0.145246654744255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>147</v>
+      </c>
+      <c r="B168">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C168">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="D168">
+        <v>-3.409656238924558</v>
+      </c>
+      <c r="E168">
+        <v>-0.1435935351360813</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>147</v>
+      </c>
+      <c r="B169">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C169">
+        <v>0.6598639455782312</v>
+      </c>
+      <c r="D169">
+        <v>-3.414017597499266</v>
+      </c>
+      <c r="E169">
+        <v>-0.1460327970391346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>147</v>
+      </c>
+      <c r="B170">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C170">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D170">
+        <v>-3.412814706152568</v>
+      </c>
+      <c r="E170">
+        <v>-0.1429078090207818</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>147</v>
+      </c>
+      <c r="B171">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C171">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="D171">
+        <v>-3.415273063132381</v>
+      </c>
+      <c r="E171">
+        <v>-0.1434440693289398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>147</v>
+      </c>
+      <c r="B172">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C172">
+        <v>0.6802721088435374</v>
+      </c>
+      <c r="D172">
+        <v>-3.410711151568788</v>
+      </c>
+      <c r="E172">
+        <v>-0.1369600610936914</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>147</v>
+      </c>
+      <c r="B173">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C173">
+        <v>0.6870748299319728</v>
+      </c>
+      <c r="D173">
+        <v>-3.417706510603375</v>
+      </c>
+      <c r="E173">
+        <v>-0.1420333234566243</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>147</v>
+      </c>
+      <c r="B174">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C174">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="D174">
+        <v>-3.416445554688483</v>
+      </c>
+      <c r="E174">
+        <v>-0.1388502708700767</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>147</v>
+      </c>
+      <c r="B175">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C175">
+        <v>0.7006802721088435</v>
+      </c>
+      <c r="D175">
+        <v>-3.415957258291502</v>
+      </c>
+      <c r="E175">
+        <v>-0.1364398778014406</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>147</v>
+      </c>
+      <c r="B176">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C176">
+        <v>0.7074829931972789</v>
+      </c>
+      <c r="D176">
+        <v>-3.424228380358514</v>
+      </c>
+      <c r="E176">
+        <v>-0.1427889031967985</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>147</v>
+      </c>
+      <c r="B177">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C177">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D177">
+        <v>-3.424412582350501</v>
+      </c>
+      <c r="E177">
+        <v>-0.1410510085171304</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>147</v>
+      </c>
+      <c r="B178">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C178">
+        <v>0.7210884353741497</v>
+      </c>
+      <c r="D178">
+        <v>-3.420787548481486</v>
+      </c>
+      <c r="E178">
+        <v>-0.1355038779764605</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>147</v>
+      </c>
+      <c r="B179">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C179">
+        <v>0.7278911564625851</v>
+      </c>
+      <c r="D179">
+        <v>-3.415573141700182</v>
+      </c>
+      <c r="E179">
+        <v>-0.128367374523502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>147</v>
+      </c>
+      <c r="B180">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C180">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="D180">
+        <v>-3.413755997512654</v>
+      </c>
+      <c r="E180">
+        <v>-0.1246281336643182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>147</v>
+      </c>
+      <c r="B181">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C181">
+        <v>0.7414965986394558</v>
+      </c>
+      <c r="D181">
+        <v>-3.422523727055179</v>
+      </c>
+      <c r="E181">
+        <v>-0.1314737665351883</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>147</v>
+      </c>
+      <c r="B182">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C182">
+        <v>0.7482993197278912</v>
+      </c>
+      <c r="D182">
+        <v>-3.415931008786218</v>
+      </c>
+      <c r="E182">
+        <v>-0.122958951594572</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>147</v>
+      </c>
+      <c r="B183">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C183">
+        <v>0.7551020408163265</v>
+      </c>
+      <c r="D183">
+        <v>-3.417137470671089</v>
+      </c>
+      <c r="E183">
+        <v>-0.1222433168077884</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>147</v>
+      </c>
+      <c r="B184">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C184">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="D184">
+        <v>-3.419425586128968</v>
+      </c>
+      <c r="E184">
+        <v>-0.122609335594013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>147</v>
+      </c>
+      <c r="B185">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C185">
+        <v>0.7687074829931972</v>
+      </c>
+      <c r="D185">
+        <v>-3.416517762103227</v>
+      </c>
+      <c r="E185">
+        <v>-0.1177794148966165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>147</v>
+      </c>
+      <c r="B186">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C186">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="D186">
+        <v>-3.419425896914478</v>
+      </c>
+      <c r="E186">
+        <v>-0.1187654530362129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>147</v>
+      </c>
+      <c r="B187">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C187">
+        <v>0.782312925170068</v>
+      </c>
+      <c r="D187">
+        <v>-3.413994713066369</v>
+      </c>
+      <c r="E187">
+        <v>-0.1114121725164487</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>147</v>
+      </c>
+      <c r="B188">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C188">
+        <v>0.7891156462585034</v>
+      </c>
+      <c r="D188">
+        <v>-3.420353270846193</v>
+      </c>
+      <c r="E188">
+        <v>-0.1158486336246187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>147</v>
+      </c>
+      <c r="B189">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C189">
+        <v>0.7959183673469388</v>
+      </c>
+      <c r="D189">
+        <v>-3.419220921800554</v>
+      </c>
+      <c r="E189">
+        <v>-0.1127941879073248</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>147</v>
+      </c>
+      <c r="B190">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C190">
+        <v>0.8027210884353742</v>
+      </c>
+      <c r="D190">
+        <v>-3.424577181346828</v>
+      </c>
+      <c r="E190">
+        <v>-0.1162283507819437</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>147</v>
+      </c>
+      <c r="B191">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C191">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="D191">
+        <v>-3.42483077634625</v>
+      </c>
+      <c r="E191">
+        <v>-0.1145598491097101</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>147</v>
+      </c>
+      <c r="B192">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C192">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="D192">
+        <v>-3.433106734427292</v>
+      </c>
+      <c r="E192">
+        <v>-0.1209137105190977</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>147</v>
+      </c>
+      <c r="B193">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C193">
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="D193">
+        <v>-3.41866828044238</v>
+      </c>
+      <c r="E193">
+        <v>-0.1045531598625304</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>147</v>
+      </c>
+      <c r="B194">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C194">
+        <v>0.8299319727891157</v>
+      </c>
+      <c r="D194">
+        <v>-3.428571209444796</v>
+      </c>
+      <c r="E194">
+        <v>-0.1125339921932914</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>147</v>
+      </c>
+      <c r="B195">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C195">
+        <v>0.8367346938775511</v>
+      </c>
+      <c r="D195">
+        <v>-3.414410631076341</v>
+      </c>
+      <c r="E195">
+        <v>-0.09645131715318189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>147</v>
+      </c>
+      <c r="B196">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C196">
+        <v>0.8435374149659864</v>
+      </c>
+      <c r="D196">
+        <v>-3.409000470774731</v>
+      </c>
+      <c r="E196">
+        <v>-0.089119060179917</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>147</v>
+      </c>
+      <c r="B197">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C197">
+        <v>0.8503401360544217</v>
+      </c>
+      <c r="D197">
+        <v>-3.421792074043617</v>
+      </c>
+      <c r="E197">
+        <v>-0.09998856677714829</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>147</v>
+      </c>
+      <c r="B198">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C198">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D198">
+        <v>-3.410164808224134</v>
+      </c>
+      <c r="E198">
+        <v>-0.08643920428600999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>147</v>
+      </c>
+      <c r="B199">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C199">
+        <v>0.8639455782312925</v>
+      </c>
+      <c r="D199">
+        <v>-3.414581269515511</v>
+      </c>
+      <c r="E199">
+        <v>-0.08893356890573234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>147</v>
+      </c>
+      <c r="B200">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C200">
+        <v>0.8707482993197279</v>
+      </c>
+      <c r="D200">
+        <v>-3.410862984717722</v>
+      </c>
+      <c r="E200">
+        <v>-0.08329318743628811</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>147</v>
+      </c>
+      <c r="B201">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C201">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="D201">
+        <v>-3.412155805240354</v>
+      </c>
+      <c r="E201">
+        <v>-0.08266391128726575</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>147</v>
+      </c>
+      <c r="B202">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C202">
+        <v>0.8843537414965986</v>
+      </c>
+      <c r="D202">
+        <v>-3.413167525236693</v>
+      </c>
+      <c r="E202">
+        <v>-0.08175353461195012</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>147</v>
+      </c>
+      <c r="B203">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C203">
+        <v>0.891156462585034</v>
+      </c>
+      <c r="D203">
+        <v>-3.408265685727976</v>
+      </c>
+      <c r="E203">
+        <v>-0.07492959843157743</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>147</v>
+      </c>
+      <c r="B204">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C204">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="D204">
+        <v>-3.410927606119952</v>
+      </c>
+      <c r="E204">
+        <v>-0.07566942215189937</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>147</v>
+      </c>
+      <c r="B205">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C205">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D205">
+        <v>-3.412002287779972</v>
+      </c>
+      <c r="E205">
+        <v>-0.07482200714026416</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>147</v>
+      </c>
+      <c r="B206">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C206">
+        <v>0.9115646258503401</v>
+      </c>
+      <c r="D206">
+        <v>-3.412231496275487</v>
+      </c>
+      <c r="E206">
+        <v>-0.07312911896412366</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>147</v>
+      </c>
+      <c r="B207">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C207">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="D207">
+        <v>-3.409048284376555</v>
+      </c>
+      <c r="E207">
+        <v>-0.06802381039353728</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>147</v>
+      </c>
+      <c r="B208">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C208">
+        <v>0.9251700680272109</v>
+      </c>
+      <c r="D208">
+        <v>-3.399718724025145</v>
+      </c>
+      <c r="E208">
+        <v>-0.05677215337047223</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>147</v>
+      </c>
+      <c r="B209">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C209">
+        <v>0.9319727891156463</v>
+      </c>
+      <c r="D209">
+        <v>-3.409249985443812</v>
+      </c>
+      <c r="E209">
+        <v>-0.06438131811748415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>147</v>
+      </c>
+      <c r="B210">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C210">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="D210">
+        <v>-3.401166941467013</v>
+      </c>
+      <c r="E210">
+        <v>-0.0543761774690307</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>147</v>
+      </c>
+      <c r="B211">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C211">
+        <v>0.9455782312925171</v>
+      </c>
+      <c r="D211">
+        <v>-3.398154090746754</v>
+      </c>
+      <c r="E211">
+        <v>-0.04944123007711637</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>147</v>
+      </c>
+      <c r="B212">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C212">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="D212">
+        <v>-3.398909896745467</v>
+      </c>
+      <c r="E212">
+        <v>-0.04827493940417513</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>147</v>
+      </c>
+      <c r="B213">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C213">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D213">
+        <v>-3.395897046025209</v>
+      </c>
+      <c r="E213">
+        <v>-0.04333999201226171</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>147</v>
+      </c>
+      <c r="B214">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C214">
+        <v>0.9659863945578231</v>
+      </c>
+      <c r="D214">
+        <v>-3.39059581069482</v>
+      </c>
+      <c r="E214">
+        <v>-0.03611666001021824</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>147</v>
+      </c>
+      <c r="B215">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C215">
+        <v>0.9727891156462585</v>
+      </c>
+      <c r="D215">
+        <v>-3.385294575364432</v>
+      </c>
+      <c r="E215">
+        <v>-0.02889332800817521</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>147</v>
+      </c>
+      <c r="B216">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C216">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D216">
+        <v>-3.379993340034043</v>
+      </c>
+      <c r="E216">
+        <v>-0.0216699960061313</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>147</v>
+      </c>
+      <c r="B217">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C217">
+        <v>0.9863945578231292</v>
+      </c>
+      <c r="D217">
+        <v>-3.374692104703655</v>
+      </c>
+      <c r="E217">
+        <v>-0.01444666400408827</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>147</v>
+      </c>
+      <c r="B218">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C218">
+        <v>0.9931972789115646</v>
+      </c>
+      <c r="D218">
+        <v>-3.369390869373266</v>
+      </c>
+      <c r="E218">
+        <v>-0.007223332002043913</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>147</v>
+      </c>
+      <c r="B219">
+        <v>1.302851068546344</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>-3.364089634042877</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>309</v>
+      </c>
+      <c r="B220">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>-3.172980348278157</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>309</v>
+      </c>
+      <c r="B221">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C221">
+        <v>0.1</v>
+      </c>
+      <c r="D221">
+        <v>-3.251240403132056</v>
+      </c>
+      <c r="E221">
+        <v>-0.0491668252994848</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>309</v>
+      </c>
+      <c r="B222">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C222">
+        <v>0.2</v>
+      </c>
+      <c r="D222">
+        <v>-3.318242623676191</v>
+      </c>
+      <c r="E222">
+        <v>-0.08707581628920558</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>309</v>
+      </c>
+      <c r="B223">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C223">
+        <v>0.3</v>
+      </c>
+      <c r="D223">
+        <v>-3.37434830315372</v>
+      </c>
+      <c r="E223">
+        <v>-0.1140882662123208</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>309</v>
+      </c>
+      <c r="B224">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C224">
+        <v>0.4</v>
+      </c>
+      <c r="D224">
+        <v>-3.417876342637674</v>
+      </c>
+      <c r="E224">
+        <v>-0.128523076141861</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>309</v>
+      </c>
+      <c r="B225">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C225">
+        <v>0.5</v>
+      </c>
+      <c r="D225">
+        <v>-3.447919299436469</v>
+      </c>
+      <c r="E225">
+        <v>-0.1294728033862416</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>309</v>
+      </c>
+      <c r="B226">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C226">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D226">
+        <v>-3.478604928019726</v>
+      </c>
+      <c r="E226">
+        <v>-0.1310652024150849</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>309</v>
+      </c>
+      <c r="B227">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C227">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D227">
+        <v>-3.49520557125726</v>
+      </c>
+      <c r="E227">
+        <v>-0.1185726160982048</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>309</v>
+      </c>
+      <c r="B228">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C228">
+        <v>0.8</v>
+      </c>
+      <c r="D228">
+        <v>-3.501185838184943</v>
+      </c>
+      <c r="E228">
+        <v>-0.09545965347147412</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>309</v>
+      </c>
+      <c r="B229">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C229">
+        <v>0.9</v>
+      </c>
+      <c r="D229">
+        <v>-3.497170965741963</v>
+      </c>
+      <c r="E229">
+        <v>-0.0623515514740795</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>309</v>
+      </c>
+      <c r="B230">
+        <v>1.737134758061792</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>-3.463912643822297</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>561</v>
+      </c>
+      <c r="B231">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>-3.231129838134682</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>561</v>
+      </c>
+      <c r="B232">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C232">
+        <v>0.1</v>
+      </c>
+      <c r="D232">
+        <v>-3.30746253499123</v>
+      </c>
+      <c r="E232">
+        <v>-0.04670629146391603</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>561</v>
+      </c>
+      <c r="B233">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C233">
+        <v>0.2</v>
+      </c>
+      <c r="D233">
+        <v>-3.373507661381352</v>
+      </c>
+      <c r="E233">
+        <v>-0.08312501246140647</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>561</v>
+      </c>
+      <c r="B234">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C234">
+        <v>0.3</v>
+      </c>
+      <c r="D234">
+        <v>-3.42217734178833</v>
+      </c>
+      <c r="E234">
+        <v>-0.1021682874757532</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>561</v>
+      </c>
+      <c r="B235">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C235">
+        <v>0.4</v>
+      </c>
+      <c r="D235">
+        <v>-3.468883538016374</v>
+      </c>
+      <c r="E235">
+        <v>-0.1192480783111649</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>561</v>
+      </c>
+      <c r="B236">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C236">
+        <v>0.5</v>
+      </c>
+      <c r="D236">
+        <v>-3.503048976235029</v>
+      </c>
+      <c r="E236">
+        <v>-0.1237871111371891</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>561</v>
+      </c>
+      <c r="B237">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C237">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D237">
+        <v>-3.53070422844845</v>
+      </c>
+      <c r="E237">
+        <v>-0.1218159579579785</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>561</v>
+      </c>
+      <c r="B238">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C238">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D238">
+        <v>-3.548532363233706</v>
+      </c>
+      <c r="E238">
+        <v>-0.1100176873506027</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>561</v>
+      </c>
+      <c r="B239">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C239">
+        <v>0.8</v>
+      </c>
+      <c r="D239">
+        <v>-3.554750388514799</v>
+      </c>
+      <c r="E239">
+        <v>-0.08660930723906324</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>561</v>
+      </c>
+      <c r="B240">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C240">
+        <v>0.9</v>
+      </c>
+      <c r="D240">
+        <v>-3.547980726539382</v>
+      </c>
+      <c r="E240">
+        <v>-0.05021323987101489</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>561</v>
+      </c>
+      <c r="B241">
+        <v>2.17141844757724</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>-3.527393892060999</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>923</v>
+      </c>
+      <c r="B242">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>-3.271316710675324</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>923</v>
+      </c>
+      <c r="B243">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C243">
+        <v>0.1</v>
+      </c>
+      <c r="D243">
+        <v>-3.345541046026478</v>
+      </c>
+      <c r="E243">
+        <v>-0.04422945433637127</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>923</v>
+      </c>
+      <c r="B244">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C244">
+        <v>0.2</v>
+      </c>
+      <c r="D244">
+        <v>-3.408494175150416</v>
+      </c>
+      <c r="E244">
+        <v>-0.07718770244552742</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>923</v>
+      </c>
+      <c r="B245">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C245">
+        <v>0.3</v>
+      </c>
+      <c r="D245">
+        <v>-3.460479938372467</v>
+      </c>
+      <c r="E245">
+        <v>-0.09917858465279616</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>923</v>
+      </c>
+      <c r="B246">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C246">
+        <v>0.4</v>
+      </c>
+      <c r="D246">
+        <v>-3.504527547018315</v>
+      </c>
+      <c r="E246">
+        <v>-0.113231312283862</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>923</v>
+      </c>
+      <c r="B247">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C247">
+        <v>0.5</v>
+      </c>
+      <c r="D247">
+        <v>-3.541179784872273</v>
+      </c>
+      <c r="E247">
+        <v>-0.1198886691230383</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>923</v>
+      </c>
+      <c r="B248">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C248">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D248">
+        <v>-3.565886380968704</v>
+      </c>
+      <c r="E248">
+        <v>-0.1146003842046877</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>923</v>
+      </c>
+      <c r="B249">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C249">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D249">
+        <v>-3.581870361512396</v>
+      </c>
+      <c r="E249">
+        <v>-0.1005894837335968</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>923</v>
+      </c>
+      <c r="B250">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C250">
+        <v>0.8</v>
+      </c>
+      <c r="D250">
+        <v>-3.590183608006275</v>
+      </c>
+      <c r="E250">
+        <v>-0.07890784921269389</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>923</v>
+      </c>
+      <c r="B251">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C251">
+        <v>0.9</v>
+      </c>
+      <c r="D251">
+        <v>-3.588335845131664</v>
+      </c>
+      <c r="E251">
+        <v>-0.04706520532330133</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>923</v>
+      </c>
+      <c r="B252">
+        <v>2.605702137092688</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>-3.571265520823145</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>1415</v>
+      </c>
+      <c r="B253">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>-3.300731718655187</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>1415</v>
+      </c>
+      <c r="B254">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C254">
+        <v>0.1</v>
+      </c>
+      <c r="D254">
+        <v>-3.37419202099236</v>
+      </c>
+      <c r="E254">
+        <v>-0.04319571351281803</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>1415</v>
+      </c>
+      <c r="B255">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C255">
+        <v>0.2</v>
+      </c>
+      <c r="D255">
+        <v>-3.436053678900562</v>
+      </c>
+      <c r="E255">
+        <v>-0.07479278259666433</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>1415</v>
+      </c>
+      <c r="B256">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C256">
+        <v>0.3</v>
+      </c>
+      <c r="D256">
+        <v>-3.488317507253956</v>
+      </c>
+      <c r="E256">
+        <v>-0.09679202212570326</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>1415</v>
+      </c>
+      <c r="B257">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C257">
+        <v>0.4</v>
+      </c>
+      <c r="D257">
+        <v>-3.533085327404881</v>
+      </c>
+      <c r="E257">
+        <v>-0.111295253452274</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>1415</v>
+      </c>
+      <c r="B258">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C258">
+        <v>0.5</v>
+      </c>
+      <c r="D258">
+        <v>-3.568597987238089</v>
+      </c>
+      <c r="E258">
+        <v>-0.1165433244611265</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>1415</v>
+      </c>
+      <c r="B259">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C259">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D259">
+        <v>-3.591954790763662</v>
+      </c>
+      <c r="E259">
+        <v>-0.1096355391623454</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>1415</v>
+      </c>
+      <c r="B260">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C260">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D260">
+        <v>-3.609669078802908</v>
+      </c>
+      <c r="E260">
+        <v>-0.09708523837723593</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>1415</v>
+      </c>
+      <c r="B261">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C261">
+        <v>0.8</v>
+      </c>
+      <c r="D261">
+        <v>-3.620415616076087</v>
+      </c>
+      <c r="E261">
+        <v>-0.07756718682606034</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>1415</v>
+      </c>
+      <c r="B262">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C262">
+        <v>0.9</v>
+      </c>
+      <c r="D262">
+        <v>-3.61801621246718</v>
+      </c>
+      <c r="E262">
+        <v>-0.04490319439279766</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>1415</v>
+      </c>
+      <c r="B263">
+        <v>3.039985826608136</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>-3.603377606898737</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>2057</v>
+      </c>
+      <c r="B264">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>-3.32318619981767</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>2057</v>
+      </c>
+      <c r="B265">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C265">
+        <v>0.1</v>
+      </c>
+      <c r="D265">
+        <v>-3.394756945255936</v>
+      </c>
+      <c r="E265">
+        <v>-0.04110027025366714</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>2057</v>
+      </c>
+      <c r="B266">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C266">
+        <v>0.2</v>
+      </c>
+      <c r="D266">
+        <v>-3.457138214803249</v>
+      </c>
+      <c r="E266">
+        <v>-0.07301106461638041</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>2057</v>
+      </c>
+      <c r="B267">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C267">
+        <v>0.3</v>
+      </c>
+      <c r="D267">
+        <v>-3.509474177279363</v>
+      </c>
+      <c r="E267">
+        <v>-0.09487655190789557</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>2057</v>
+      </c>
+      <c r="B268">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C268">
+        <v>0.4</v>
+      </c>
+      <c r="D268">
+        <v>-3.554243247919502</v>
+      </c>
+      <c r="E268">
+        <v>-0.109175147363435</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>2057</v>
+      </c>
+      <c r="B269">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C269">
+        <v>0.5</v>
+      </c>
+      <c r="D269">
+        <v>-3.58821283160023</v>
+      </c>
+      <c r="E269">
+        <v>-0.1126742558595639</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>2057</v>
+      </c>
+      <c r="B270">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C270">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D270">
+        <v>-3.615821925916484</v>
+      </c>
+      <c r="E270">
+        <v>-0.1098128749912191</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>2057</v>
+      </c>
+      <c r="B271">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C271">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D271">
+        <v>-3.631497181222958</v>
+      </c>
+      <c r="E271">
+        <v>-0.09501765511309379</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>2057</v>
+      </c>
+      <c r="B272">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C272">
+        <v>0.8</v>
+      </c>
+      <c r="D272">
+        <v>-3.640453173907385</v>
+      </c>
+      <c r="E272">
+        <v>-0.0735031726129215</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>2057</v>
+      </c>
+      <c r="B273">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C273">
+        <v>0.9</v>
+      </c>
+      <c r="D273">
+        <v>-3.640282921666719</v>
+      </c>
+      <c r="E273">
+        <v>-0.04286244518765586</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>2057</v>
+      </c>
+      <c r="B274">
+        <v>3.474269516123583</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>-3.627890951663662</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>2869</v>
+      </c>
+      <c r="B275">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>-3.34088575020462</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>2869</v>
+      </c>
+      <c r="B276">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C276">
+        <v>0.1</v>
+      </c>
+      <c r="D276">
+        <v>-3.412444193185611</v>
+      </c>
+      <c r="E276">
+        <v>-0.0409256796552957</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>2869</v>
+      </c>
+      <c r="B277">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C277">
+        <v>0.2</v>
+      </c>
+      <c r="D277">
+        <v>-3.473705784135773</v>
+      </c>
+      <c r="E277">
+        <v>-0.07155450727976209</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>2869</v>
+      </c>
+      <c r="B278">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C278">
+        <v>0.3</v>
+      </c>
+      <c r="D278">
+        <v>-3.527271783026683</v>
+      </c>
+      <c r="E278">
+        <v>-0.09448774284497663</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>2869</v>
+      </c>
+      <c r="B279">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C279">
+        <v>0.4</v>
+      </c>
+      <c r="D279">
+        <v>-3.570916884861503</v>
+      </c>
+      <c r="E279">
+        <v>-0.1075000813541003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>2869</v>
+      </c>
+      <c r="B280">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C280">
+        <v>0.5</v>
+      </c>
+      <c r="D280">
+        <v>-3.605380358998981</v>
+      </c>
+      <c r="E280">
+        <v>-0.1113307921658833</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>2869</v>
+      </c>
+      <c r="B281">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C281">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D281">
+        <v>-3.632369045447468</v>
+      </c>
+      <c r="E281">
+        <v>-0.1076867152886745</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>2869</v>
+      </c>
+      <c r="B282">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C282">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D282">
+        <v>-3.649099221652746</v>
+      </c>
+      <c r="E282">
+        <v>-0.09378412816825699</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>2869</v>
+      </c>
+      <c r="B283">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C283">
+        <v>0.8</v>
+      </c>
+      <c r="D283">
+        <v>-3.658260624184511</v>
+      </c>
+      <c r="E283">
+        <v>-0.07231276737432679</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>2869</v>
+      </c>
+      <c r="B284">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C284">
+        <v>0.9</v>
+      </c>
+      <c r="D284">
+        <v>-3.658932012187838</v>
+      </c>
+      <c r="E284">
+        <v>-0.04235139205195798</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>2869</v>
+      </c>
+      <c r="B285">
+        <v>3.908553205639032</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>-3.647213383461576</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>3871</v>
+      </c>
+      <c r="B286">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>-3.355194263713085</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>3871</v>
+      </c>
+      <c r="B287">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C287">
+        <v>0.1</v>
+      </c>
+      <c r="D287">
+        <v>-3.426156192394989</v>
+      </c>
+      <c r="E287">
+        <v>-0.04019796981688906</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>3871</v>
+      </c>
+      <c r="B288">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C288">
+        <v>0.2</v>
+      </c>
+      <c r="D288">
+        <v>-3.487786434119501</v>
+      </c>
+      <c r="E288">
+        <v>-0.0710642526763845</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>3871</v>
+      </c>
+      <c r="B289">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C289">
+        <v>0.3</v>
+      </c>
+      <c r="D289">
+        <v>-3.541303846235794</v>
+      </c>
+      <c r="E289">
+        <v>-0.09381770592766259</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>3871</v>
+      </c>
+      <c r="B290">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C290">
+        <v>0.4</v>
+      </c>
+      <c r="D290">
+        <v>-3.584314833604531</v>
+      </c>
+      <c r="E290">
+        <v>-0.1060647344313841</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>3871</v>
+      </c>
+      <c r="B291">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C291">
+        <v>0.5</v>
+      </c>
+      <c r="D291">
+        <v>-3.61941775415461</v>
+      </c>
+      <c r="E291">
+        <v>-0.1104036961164478</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>3871</v>
+      </c>
+      <c r="B292">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C292">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D292">
+        <v>-3.645924040145651</v>
+      </c>
+      <c r="E292">
+        <v>-0.1061460232424738</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>3871</v>
+      </c>
+      <c r="B293">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C293">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D293">
+        <v>-3.663671279038547</v>
+      </c>
+      <c r="E293">
+        <v>-0.0931293032703544</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>3871</v>
+      </c>
+      <c r="B294">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C294">
+        <v>0.8</v>
+      </c>
+      <c r="D294">
+        <v>-3.673415381057052</v>
+      </c>
+      <c r="E294">
+        <v>-0.07210944642384376</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>3871</v>
+      </c>
+      <c r="B295">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C295">
+        <v>0.9</v>
+      </c>
+      <c r="D295">
+        <v>-3.673186487375664</v>
+      </c>
+      <c r="E295">
+        <v>-0.04111659387744088</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>3871</v>
+      </c>
+      <c r="B296">
+        <v>4.34283689515448</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>-3.662833852363239</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>5083</v>
+      </c>
+      <c r="B297">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>-3.367000067974438</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298">
+        <v>5083</v>
+      </c>
+      <c r="B298">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C298">
+        <v>0.1</v>
+      </c>
+      <c r="D298">
+        <v>-3.437822331768653</v>
+      </c>
+      <c r="E298">
+        <v>-0.0399500568672444</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299">
+        <v>5083</v>
+      </c>
+      <c r="B299">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C299">
+        <v>0.2</v>
+      </c>
+      <c r="D299">
+        <v>-3.499799630348018</v>
+      </c>
+      <c r="E299">
+        <v>-0.07105514851963779</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300">
+        <v>5083</v>
+      </c>
+      <c r="B300">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C300">
+        <v>0.3</v>
+      </c>
+      <c r="D300">
+        <v>-3.55196615156878</v>
+      </c>
+      <c r="E300">
+        <v>-0.09234946281342982</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301">
+        <v>5083</v>
+      </c>
+      <c r="B301">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C301">
+        <v>0.4</v>
+      </c>
+      <c r="D301">
+        <v>-3.595916748306249</v>
+      </c>
+      <c r="E301">
+        <v>-0.1054278526239281</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>5083</v>
+      </c>
+      <c r="B302">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C302">
+        <v>0.5</v>
+      </c>
+      <c r="D302">
+        <v>-3.631651291277268</v>
+      </c>
+      <c r="E302">
+        <v>-0.1102901886679764</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>5083</v>
+      </c>
+      <c r="B303">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C303">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D303">
+        <v>-3.657323086461292</v>
+      </c>
+      <c r="E303">
+        <v>-0.1050897769250301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>5083</v>
+      </c>
+      <c r="B304">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C304">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D304">
+        <v>-3.675767714546423</v>
+      </c>
+      <c r="E304">
+        <v>-0.09266219808319076</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>5083</v>
+      </c>
+      <c r="B305">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C305">
+        <v>0.8</v>
+      </c>
+      <c r="D305">
+        <v>-3.685227204492839</v>
+      </c>
+      <c r="E305">
+        <v>-0.0712494811026354</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>5083</v>
+      </c>
+      <c r="B306">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C306">
+        <v>0.9</v>
+      </c>
+      <c r="D306">
+        <v>-3.685587563415229</v>
+      </c>
+      <c r="E306">
+        <v>-0.04073763309805467</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>5083</v>
+      </c>
+      <c r="B307">
+        <v>4.777120584669929</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>-3.675722137244145</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
         <v>6525</v>
       </c>
-      <c r="B133">
+      <c r="B308">
         <v>5.211404274185376</v>
       </c>
-      <c r="C133">
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>-3.376906401437568</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309">
+        <v>6525</v>
+      </c>
+      <c r="B309">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C309">
+        <v>0.1</v>
+      </c>
+      <c r="D309">
+        <v>-3.447681394028296</v>
+      </c>
+      <c r="E309">
+        <v>-0.03981195395294046</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310">
+        <v>6525</v>
+      </c>
+      <c r="B310">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C310">
+        <v>0.2</v>
+      </c>
+      <c r="D310">
+        <v>-3.509398127493683</v>
+      </c>
+      <c r="E310">
+        <v>-0.07056564878054017</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311">
+        <v>6525</v>
+      </c>
+      <c r="B311">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C311">
+        <v>0.3</v>
+      </c>
+      <c r="D311">
+        <v>-3.561375788221175</v>
+      </c>
+      <c r="E311">
+        <v>-0.09158027087024534</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312">
+        <v>6525</v>
+      </c>
+      <c r="B312">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C312">
+        <v>0.4</v>
+      </c>
+      <c r="D312">
+        <v>-3.605808382284883</v>
+      </c>
+      <c r="E312">
+        <v>-0.105049826296165</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313">
+        <v>6525</v>
+      </c>
+      <c r="B313">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C313">
+        <v>0.5</v>
+      </c>
+      <c r="D313">
+        <v>-3.641227963742827</v>
+      </c>
+      <c r="E313">
+        <v>-0.1095063691163221</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314">
+        <v>6525</v>
+      </c>
+      <c r="B314">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C314">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D314">
+        <v>-3.667603549004994</v>
+      </c>
+      <c r="E314">
+        <v>-0.1049189157407018</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315">
+        <v>6525</v>
+      </c>
+      <c r="B315">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C315">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D315">
+        <v>-3.685622732530768</v>
+      </c>
+      <c r="E315">
+        <v>-0.09197506062868932</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316">
+        <v>6525</v>
+      </c>
+      <c r="B316">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C316">
+        <v>0.8</v>
+      </c>
+      <c r="D316">
+        <v>-3.696343287193979</v>
+      </c>
+      <c r="E316">
+        <v>-0.07173257665411226</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317">
+        <v>6525</v>
+      </c>
+      <c r="B317">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C317">
+        <v>0.9</v>
+      </c>
+      <c r="D317">
+        <v>-3.695845089663842</v>
+      </c>
+      <c r="E317">
+        <v>-0.04027134048618847</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318">
+        <v>6525</v>
+      </c>
+      <c r="B318">
+        <v>5.211404274185376</v>
+      </c>
+      <c r="C318">
         <v>1</v>
       </c>
-      <c r="D133">
+      <c r="D318">
         <v>-3.686536787815441</v>
       </c>
-      <c r="E133">
+      <c r="E318">
         <v>0</v>
       </c>
     </row>
